--- a/input_data/implants/implants_info.xlsx
+++ b/input_data/implants/implants_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/implants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/implants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF34841-CA9F-A447-9A24-FC7BDA94C203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E74A3-FF23-B84D-BE24-CE76E45BC318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="174">
   <si>
     <t>Тип</t>
   </si>
@@ -56,27 +56,6 @@
   </si>
   <si>
     <t>ПЛАН</t>
-  </si>
-  <si>
-    <t>31 янв.</t>
-  </si>
-  <si>
-    <t>01 февр.</t>
-  </si>
-  <si>
-    <t>02 февр.</t>
-  </si>
-  <si>
-    <t>03 февр.</t>
-  </si>
-  <si>
-    <t>04 февр.</t>
-  </si>
-  <si>
-    <t>05 февр.</t>
-  </si>
-  <si>
-    <t>06 февр.</t>
   </si>
   <si>
     <t>07 февр.</t>
@@ -569,10 +548,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0&quot; янв.&quot;"/>
-    <numFmt numFmtId="165" formatCode="00&quot; февр.&quot;"/>
-    <numFmt numFmtId="166" formatCode="0&quot; февр.&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="00&quot; февр.&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot; февр.&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -700,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -745,9 +723,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,7 +1085,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ109"/>
+  <dimension ref="A1:AS109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -1128,10 +1103,9 @@
     <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.25" style="1" customWidth="1"/>
     <col min="15" max="16" width="9.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="8.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="7.75" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="8.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="7.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="8.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="7.75" style="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="7.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="6.75" style="1" customWidth="1" outlineLevel="1"/>
@@ -1140,64 +1114,63 @@
     <col min="26" max="26" width="6.25" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.75" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="34" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="52" width="12.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="15.25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="45" width="12.25" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:45" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="20"/>
+      <c r="AB1" s="19"/>
       <c r="AC1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1249,260 +1222,211 @@
       <c r="AS1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AB2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AC2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AD2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
     </row>
-    <row r="2" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+    <row r="4" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ2" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-    </row>
-    <row r="4" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I4" s="6">
         <v>3</v>
@@ -1571,38 +1495,31 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
     </row>
-    <row r="5" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I5" s="6">
         <v>8</v>
@@ -1671,38 +1588,31 @@
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6">
         <v>5</v>
@@ -1712,20 +1622,20 @@
         <v>5</v>
       </c>
       <c r="L6" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M6" s="9">
         <v>0</v>
       </c>
       <c r="N6" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O6" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" s="6">
         <v>23</v>
@@ -1736,21 +1646,21 @@
       <c r="T6" s="8">
         <v>23</v>
       </c>
-      <c r="U6" s="8">
-        <v>3</v>
+      <c r="U6" s="6">
+        <v>0</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
-        <v>3</v>
-      </c>
-      <c r="X6" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>4</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
       </c>
       <c r="Z6" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
@@ -1771,38 +1681,31 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
     </row>
-    <row r="7" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I7" s="8">
         <v>12</v>
@@ -1871,70 +1774,63 @@
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="8">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="I8" s="6">
+        <v>13</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
+        <v>13</v>
+      </c>
+      <c r="L8" s="6">
         <v>14</v>
       </c>
-      <c r="L8" s="8">
-        <v>13</v>
-      </c>
       <c r="M8" s="9">
         <v>0</v>
       </c>
       <c r="N8" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8" s="9">
         <v>0</v>
       </c>
       <c r="T8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" s="8">
         <v>11</v>
@@ -1971,70 +1867,63 @@
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I9" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
       </c>
       <c r="N9" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
       </c>
       <c r="T9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9" s="8">
         <v>15</v>
@@ -2071,38 +1960,31 @@
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
       <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I10" s="8">
         <v>52</v>
@@ -2171,38 +2053,31 @@
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
     </row>
-    <row r="11" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -2271,38 +2146,31 @@
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
     </row>
-    <row r="12" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I12" s="8">
         <v>35</v>
@@ -2371,70 +2239,63 @@
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
     </row>
-    <row r="13" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I13" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L13" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
       </c>
       <c r="N13" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R13" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S13" s="9">
         <v>0</v>
       </c>
       <c r="T13" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" s="8">
         <v>18</v>
@@ -2471,38 +2332,31 @@
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
     </row>
-    <row r="14" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I14" s="8">
         <v>35</v>
@@ -2575,38 +2429,31 @@
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
     </row>
-    <row r="15" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I15" s="8">
         <v>4</v>
@@ -2679,38 +2526,31 @@
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
     </row>
-    <row r="16" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I16" s="8">
         <v>13</v>
@@ -2783,38 +2623,31 @@
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
     </row>
-    <row r="17" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I17" s="8">
         <v>8</v>
@@ -2887,38 +2720,31 @@
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
     </row>
-    <row r="18" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I18" s="8">
         <v>81</v>
@@ -2991,38 +2817,31 @@
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
     </row>
-    <row r="19" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I19" s="8">
         <v>234</v>
@@ -3095,38 +2914,31 @@
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
       <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
     </row>
-    <row r="20" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I20" s="8">
         <v>94</v>
@@ -3199,38 +3011,31 @@
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
     </row>
-    <row r="21" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I21" s="8">
         <v>91</v>
@@ -3303,38 +3108,31 @@
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
     </row>
-    <row r="22" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I22" s="8">
         <v>585</v>
@@ -3403,74 +3201,67 @@
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
     </row>
-    <row r="23" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I23" s="8">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J23" s="8">
         <v>174</v>
       </c>
       <c r="K23" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L23" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M23" s="9">
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O23" s="8">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P23" s="8">
         <v>174</v>
       </c>
       <c r="Q23" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R23" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S23" s="9">
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U23" s="8">
         <v>25</v>
@@ -3480,13 +3271,13 @@
         <v>25</v>
       </c>
       <c r="X23" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y23" s="9">
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -3507,38 +3298,31 @@
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
     </row>
-    <row r="24" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8">
         <v>642</v>
@@ -3607,38 +3391,31 @@
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
     </row>
-    <row r="25" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8">
         <v>253</v>
@@ -3707,65 +3484,58 @@
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
     </row>
-    <row r="26" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J26" s="8">
         <v>221</v>
       </c>
       <c r="K26" s="8">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L26" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
       </c>
       <c r="N26" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O26" s="8">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P26" s="8">
         <v>221</v>
       </c>
       <c r="Q26" s="8">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R26" s="8">
         <v>36</v>
@@ -3784,13 +3554,13 @@
         <v>28</v>
       </c>
       <c r="X26" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y26" s="9">
         <v>0</v>
       </c>
       <c r="Z26" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
@@ -3811,70 +3581,63 @@
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
     </row>
-    <row r="27" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L27" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M27" s="9">
         <v>0</v>
       </c>
       <c r="N27" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R27" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S27" s="9">
         <v>0</v>
       </c>
       <c r="T27" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U27" s="8">
         <v>20</v>
@@ -3884,13 +3647,13 @@
         <v>20</v>
       </c>
       <c r="X27" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y27" s="9">
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -3911,38 +3674,31 @@
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
     </row>
-    <row r="28" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I28" s="11">
         <v>1417</v>
@@ -4015,38 +3771,31 @@
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
     </row>
-    <row r="29" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I29" s="8">
         <v>225</v>
@@ -4115,38 +3864,31 @@
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
     </row>
-    <row r="30" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I30" s="8">
         <v>38</v>
@@ -4215,38 +3957,31 @@
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="4"/>
-      <c r="AY30" s="4"/>
-      <c r="AZ30" s="4"/>
     </row>
-    <row r="31" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I31" s="6">
         <v>2</v>
@@ -4315,38 +4050,31 @@
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="4"/>
-      <c r="AY31" s="4"/>
-      <c r="AZ31" s="4"/>
     </row>
-    <row r="32" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I32" s="8">
         <v>144</v>
@@ -4415,38 +4143,31 @@
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
-      <c r="AY32" s="4"/>
-      <c r="AZ32" s="4"/>
     </row>
-    <row r="33" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I33" s="8">
         <v>398</v>
@@ -4515,38 +4236,31 @@
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
-      <c r="AY33" s="4"/>
-      <c r="AZ33" s="4"/>
     </row>
-    <row r="34" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I34" s="8">
         <v>143</v>
@@ -4619,86 +4333,79 @@
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4"/>
-      <c r="AY34" s="4"/>
-      <c r="AZ34" s="4"/>
     </row>
-    <row r="35" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I35" s="11">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="11">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="L35" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O35" s="11">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="11">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="R35" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S35" s="9">
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U35" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V35" s="7"/>
       <c r="W35" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X35" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y35" s="9">
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
@@ -4719,38 +4426,31 @@
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
       <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
     </row>
-    <row r="36" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F36" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I36" s="8">
         <v>22</v>
@@ -4819,86 +4519,79 @@
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
     </row>
-    <row r="37" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F37" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I37" s="11">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="11">
-        <v>1923</v>
+        <v>1903</v>
       </c>
       <c r="L37" s="8">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="M37" s="9">
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="O37" s="11">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="11">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="R37" s="8">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="S37" s="9">
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="U37" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V37" s="7"/>
       <c r="W37" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X37" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y37" s="9">
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -4919,38 +4612,31 @@
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
-      <c r="AZ37" s="4"/>
     </row>
-    <row r="38" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I38" s="8">
         <v>257</v>
@@ -5023,70 +4709,63 @@
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
       <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
-      <c r="AY38" s="4"/>
-      <c r="AZ38" s="4"/>
     </row>
-    <row r="39" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I39" s="8">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="8">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="L39" s="8">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="M39" s="9">
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="8">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="R39" s="8">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="S39" s="9">
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="U39" s="8">
         <v>76</v>
@@ -5123,38 +4802,31 @@
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
     </row>
-    <row r="40" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I40" s="8">
         <v>86</v>
@@ -5223,70 +4895,63 @@
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-      <c r="AZ40" s="4"/>
     </row>
-    <row r="41" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I41" s="8">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="8">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L41" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M41" s="9">
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="8">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="R41" s="8">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S41" s="9">
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="U41" s="8">
         <v>88</v>
@@ -5323,38 +4988,31 @@
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
       <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
-      <c r="AY41" s="4"/>
-      <c r="AZ41" s="4"/>
     </row>
-    <row r="42" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I42" s="8">
         <v>177</v>
@@ -5427,86 +5085,79 @@
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
       <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
     </row>
-    <row r="43" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I43" s="8">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="8">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="L43" s="8">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="O43" s="8">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="8">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="R43" s="8">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S43" s="9">
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="U43" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V43" s="7"/>
       <c r="W43" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X43" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y43" s="9">
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
@@ -5527,38 +5178,31 @@
       <c r="AQ43" s="4"/>
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="4"/>
-      <c r="AY43" s="4"/>
-      <c r="AZ43" s="4"/>
     </row>
-    <row r="44" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I44" s="8">
         <v>167</v>
@@ -5627,86 +5271,79 @@
       <c r="AQ44" s="4"/>
       <c r="AR44" s="4"/>
       <c r="AS44" s="4"/>
-      <c r="AT44" s="4"/>
-      <c r="AU44" s="4"/>
-      <c r="AV44" s="4"/>
-      <c r="AW44" s="4"/>
-      <c r="AX44" s="4"/>
-      <c r="AY44" s="4"/>
-      <c r="AZ44" s="4"/>
     </row>
-    <row r="45" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I45" s="8">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="8">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="L45" s="8">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M45" s="9">
         <v>0</v>
       </c>
       <c r="N45" s="8">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O45" s="8">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="8">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="R45" s="8">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S45" s="9">
         <v>0</v>
       </c>
       <c r="T45" s="8">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="U45" s="8">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="V45" s="7"/>
       <c r="W45" s="8">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X45" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y45" s="9">
         <v>0</v>
       </c>
       <c r="Z45" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
@@ -5727,38 +5364,31 @@
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
-      <c r="AT45" s="4"/>
-      <c r="AU45" s="4"/>
-      <c r="AV45" s="4"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="4"/>
-      <c r="AY45" s="4"/>
-      <c r="AZ45" s="4"/>
     </row>
-    <row r="46" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I46" s="8">
         <v>55</v>
@@ -5827,86 +5457,79 @@
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4"/>
-      <c r="AT46" s="4"/>
-      <c r="AU46" s="4"/>
-      <c r="AV46" s="4"/>
-      <c r="AW46" s="4"/>
-      <c r="AX46" s="4"/>
-      <c r="AY46" s="4"/>
-      <c r="AZ46" s="4"/>
     </row>
-    <row r="47" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I47" s="11">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="11">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="L47" s="8">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
       </c>
       <c r="N47" s="8">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O47" s="8">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="8">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="R47" s="8">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="S47" s="9">
         <v>0</v>
       </c>
       <c r="T47" s="8">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="U47" s="8">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="V47" s="7"/>
       <c r="W47" s="8">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X47" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y47" s="9">
         <v>0</v>
       </c>
       <c r="Z47" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
@@ -5927,38 +5550,31 @@
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
       <c r="AS47" s="4"/>
-      <c r="AT47" s="4"/>
-      <c r="AU47" s="4"/>
-      <c r="AV47" s="4"/>
-      <c r="AW47" s="4"/>
-      <c r="AX47" s="4"/>
-      <c r="AY47" s="4"/>
-      <c r="AZ47" s="4"/>
     </row>
-    <row r="48" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I48" s="8">
         <v>61</v>
@@ -6027,70 +5643,63 @@
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
       <c r="AS48" s="4"/>
-      <c r="AT48" s="4"/>
-      <c r="AU48" s="4"/>
-      <c r="AV48" s="4"/>
-      <c r="AW48" s="4"/>
-      <c r="AX48" s="4"/>
-      <c r="AY48" s="4"/>
-      <c r="AZ48" s="4"/>
     </row>
-    <row r="49" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I49" s="11">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="11">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="L49" s="8">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M49" s="9">
         <v>0</v>
       </c>
       <c r="N49" s="8">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="O49" s="11">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="11">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="R49" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="S49" s="9">
         <v>0</v>
       </c>
       <c r="T49" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="U49" s="8">
         <v>93</v>
@@ -6127,38 +5736,31 @@
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
       <c r="AS49" s="4"/>
-      <c r="AT49" s="4"/>
-      <c r="AU49" s="4"/>
-      <c r="AV49" s="4"/>
-      <c r="AW49" s="4"/>
-      <c r="AX49" s="4"/>
-      <c r="AY49" s="4"/>
-      <c r="AZ49" s="4"/>
     </row>
-    <row r="50" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I50" s="8">
         <v>21</v>
@@ -6227,70 +5829,63 @@
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="4"/>
-      <c r="AT50" s="4"/>
-      <c r="AU50" s="4"/>
-      <c r="AV50" s="4"/>
-      <c r="AW50" s="4"/>
-      <c r="AX50" s="4"/>
-      <c r="AY50" s="4"/>
-      <c r="AZ50" s="4"/>
     </row>
-    <row r="51" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I51" s="8">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="8">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="L51" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
       </c>
       <c r="N51" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O51" s="8">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="8">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="R51" s="8">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="S51" s="9">
         <v>0</v>
       </c>
       <c r="T51" s="8">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="U51" s="8">
         <v>134</v>
@@ -6327,38 +5922,31 @@
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
       <c r="AS51" s="4"/>
-      <c r="AT51" s="4"/>
-      <c r="AU51" s="4"/>
-      <c r="AV51" s="4"/>
-      <c r="AW51" s="4"/>
-      <c r="AX51" s="4"/>
-      <c r="AY51" s="4"/>
-      <c r="AZ51" s="4"/>
     </row>
-    <row r="52" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I52" s="8">
         <v>171</v>
@@ -6431,86 +6019,79 @@
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
-      <c r="AT52" s="4"/>
-      <c r="AU52" s="4"/>
-      <c r="AV52" s="4"/>
-      <c r="AW52" s="4"/>
-      <c r="AX52" s="4"/>
-      <c r="AY52" s="4"/>
-      <c r="AZ52" s="4"/>
     </row>
-    <row r="53" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I53" s="8">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="8">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="L53" s="8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M53" s="9">
         <v>0</v>
       </c>
       <c r="N53" s="8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="8">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="R53" s="8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S53" s="9">
         <v>0</v>
       </c>
       <c r="T53" s="8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="U53" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V53" s="7"/>
       <c r="W53" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X53" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y53" s="9">
         <v>0</v>
       </c>
       <c r="Z53" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
@@ -6531,38 +6112,31 @@
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
-      <c r="AT53" s="4"/>
-      <c r="AU53" s="4"/>
-      <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="4"/>
-      <c r="AY53" s="4"/>
-      <c r="AZ53" s="4"/>
     </row>
-    <row r="54" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I54" s="8">
         <v>45</v>
@@ -6631,86 +6205,79 @@
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
-      <c r="AT54" s="4"/>
-      <c r="AU54" s="4"/>
-      <c r="AV54" s="4"/>
-      <c r="AW54" s="4"/>
-      <c r="AX54" s="4"/>
-      <c r="AY54" s="4"/>
-      <c r="AZ54" s="4"/>
     </row>
-    <row r="55" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I55" s="11">
-        <v>1247</v>
+        <v>1224</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="11">
-        <v>1247</v>
+        <v>1224</v>
       </c>
       <c r="L55" s="8">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M55" s="9">
         <v>0</v>
       </c>
       <c r="N55" s="8">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O55" s="11">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="11">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="R55" s="8">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="S55" s="9">
         <v>0</v>
       </c>
       <c r="T55" s="8">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="U55" s="8">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="V55" s="7"/>
       <c r="W55" s="8">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="X55" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Y55" s="9">
         <v>0</v>
       </c>
       <c r="Z55" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
@@ -6731,38 +6298,31 @@
       <c r="AQ55" s="4"/>
       <c r="AR55" s="4"/>
       <c r="AS55" s="4"/>
-      <c r="AT55" s="4"/>
-      <c r="AU55" s="4"/>
-      <c r="AV55" s="4"/>
-      <c r="AW55" s="4"/>
-      <c r="AX55" s="4"/>
-      <c r="AY55" s="4"/>
-      <c r="AZ55" s="4"/>
     </row>
-    <row r="56" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I56" s="8">
         <v>35</v>
@@ -6831,86 +6391,79 @@
       <c r="AQ56" s="4"/>
       <c r="AR56" s="4"/>
       <c r="AS56" s="4"/>
-      <c r="AT56" s="4"/>
-      <c r="AU56" s="4"/>
-      <c r="AV56" s="4"/>
-      <c r="AW56" s="4"/>
-      <c r="AX56" s="4"/>
-      <c r="AY56" s="4"/>
-      <c r="AZ56" s="4"/>
     </row>
-    <row r="57" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I57" s="11">
-        <v>1260</v>
+        <v>1214</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="11">
-        <v>1260</v>
+        <v>1214</v>
       </c>
       <c r="L57" s="8">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
       </c>
       <c r="N57" s="8">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="O57" s="11">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="11">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="R57" s="8">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="S57" s="9">
         <v>0</v>
       </c>
       <c r="T57" s="8">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="U57" s="8">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="V57" s="7"/>
       <c r="W57" s="8">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="X57" s="8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="Y57" s="9">
         <v>0</v>
       </c>
       <c r="Z57" s="8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
@@ -6931,38 +6484,31 @@
       <c r="AQ57" s="4"/>
       <c r="AR57" s="4"/>
       <c r="AS57" s="4"/>
-      <c r="AT57" s="4"/>
-      <c r="AU57" s="4"/>
-      <c r="AV57" s="4"/>
-      <c r="AW57" s="4"/>
-      <c r="AX57" s="4"/>
-      <c r="AY57" s="4"/>
-      <c r="AZ57" s="4"/>
     </row>
-    <row r="58" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I58" s="8">
         <v>305</v>
@@ -7035,70 +6581,63 @@
       <c r="AQ58" s="4"/>
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
-      <c r="AT58" s="4"/>
-      <c r="AU58" s="4"/>
-      <c r="AV58" s="4"/>
-      <c r="AW58" s="4"/>
-      <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
-      <c r="AZ58" s="4"/>
     </row>
-    <row r="59" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I59" s="11">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="11">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="L59" s="8">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M59" s="9">
         <v>0</v>
       </c>
       <c r="N59" s="8">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O59" s="11">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="11">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="R59" s="8">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="S59" s="9">
         <v>0</v>
       </c>
       <c r="T59" s="8">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="U59" s="8">
         <v>133</v>
@@ -7135,38 +6674,31 @@
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
     </row>
-    <row r="60" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I60" s="8">
         <v>103</v>
@@ -7239,70 +6771,63 @@
       <c r="AQ60" s="4"/>
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
-      <c r="AT60" s="4"/>
-      <c r="AU60" s="4"/>
-      <c r="AV60" s="4"/>
-      <c r="AW60" s="4"/>
-      <c r="AX60" s="4"/>
-      <c r="AY60" s="4"/>
-      <c r="AZ60" s="4"/>
     </row>
-    <row r="61" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="8">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L61" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M61" s="9">
         <v>0</v>
       </c>
       <c r="N61" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O61" s="8">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="8">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="R61" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S61" s="9">
         <v>0</v>
       </c>
       <c r="T61" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="U61" s="8">
         <v>96</v>
@@ -7339,38 +6864,31 @@
       <c r="AQ61" s="4"/>
       <c r="AR61" s="4"/>
       <c r="AS61" s="4"/>
-      <c r="AT61" s="4"/>
-      <c r="AU61" s="4"/>
-      <c r="AV61" s="4"/>
-      <c r="AW61" s="4"/>
-      <c r="AX61" s="4"/>
-      <c r="AY61" s="4"/>
-      <c r="AZ61" s="4"/>
     </row>
-    <row r="62" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I62" s="8">
         <v>31</v>
@@ -7439,70 +6957,63 @@
       <c r="AQ62" s="4"/>
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
-      <c r="AT62" s="4"/>
-      <c r="AU62" s="4"/>
-      <c r="AV62" s="4"/>
-      <c r="AW62" s="4"/>
-      <c r="AX62" s="4"/>
-      <c r="AY62" s="4"/>
-      <c r="AZ62" s="4"/>
     </row>
-    <row r="63" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I63" s="8">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="8">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L63" s="8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
       </c>
       <c r="N63" s="8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="8">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="R63" s="8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S63" s="9">
         <v>0</v>
       </c>
       <c r="T63" s="8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="U63" s="8">
         <v>105</v>
@@ -7539,38 +7050,31 @@
       <c r="AQ63" s="4"/>
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
-      <c r="AT63" s="4"/>
-      <c r="AU63" s="4"/>
-      <c r="AV63" s="4"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
     </row>
-    <row r="64" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I64" s="8">
         <v>110</v>
@@ -7643,86 +7147,79 @@
       <c r="AQ64" s="4"/>
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
-      <c r="AT64" s="4"/>
-      <c r="AU64" s="4"/>
-      <c r="AV64" s="4"/>
-      <c r="AW64" s="4"/>
-      <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
-      <c r="AZ64" s="4"/>
     </row>
-    <row r="65" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I65" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L65" s="8">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M65" s="9">
         <v>0</v>
       </c>
       <c r="N65" s="8">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O65" s="6">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="R65" s="6">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="S65" s="9">
         <v>0</v>
       </c>
       <c r="T65" s="8">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="U65" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V65" s="7"/>
       <c r="W65" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X65" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y65" s="9">
         <v>0</v>
       </c>
       <c r="Z65" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
@@ -7743,38 +7240,31 @@
       <c r="AQ65" s="4"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
-      <c r="AT65" s="4"/>
-      <c r="AU65" s="4"/>
-      <c r="AV65" s="4"/>
-      <c r="AW65" s="4"/>
-      <c r="AX65" s="4"/>
-      <c r="AY65" s="4"/>
-      <c r="AZ65" s="4"/>
     </row>
-    <row r="66" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I66" s="8">
         <v>107</v>
@@ -7843,70 +7333,63 @@
       <c r="AQ66" s="4"/>
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
-      <c r="AT66" s="4"/>
-      <c r="AU66" s="4"/>
-      <c r="AV66" s="4"/>
-      <c r="AW66" s="4"/>
-      <c r="AX66" s="4"/>
-      <c r="AY66" s="4"/>
-      <c r="AZ66" s="4"/>
     </row>
-    <row r="67" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I67" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L67" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M67" s="9">
         <v>0</v>
       </c>
       <c r="N67" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O67" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R67" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S67" s="9">
         <v>0</v>
       </c>
       <c r="T67" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U67" s="8">
         <v>66</v>
@@ -7943,38 +7426,31 @@
       <c r="AQ67" s="4"/>
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
-      <c r="AT67" s="4"/>
-      <c r="AU67" s="4"/>
-      <c r="AV67" s="4"/>
-      <c r="AW67" s="4"/>
-      <c r="AX67" s="4"/>
-      <c r="AY67" s="4"/>
-      <c r="AZ67" s="4"/>
     </row>
-    <row r="68" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I68" s="8">
         <v>13</v>
@@ -8043,70 +7519,63 @@
       <c r="AQ68" s="4"/>
       <c r="AR68" s="4"/>
       <c r="AS68" s="4"/>
-      <c r="AT68" s="4"/>
-      <c r="AU68" s="4"/>
-      <c r="AV68" s="4"/>
-      <c r="AW68" s="4"/>
-      <c r="AX68" s="4"/>
-      <c r="AY68" s="4"/>
-      <c r="AZ68" s="4"/>
     </row>
-    <row r="69" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I69" s="8">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="8">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L69" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M69" s="9">
         <v>0</v>
       </c>
       <c r="N69" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O69" s="8">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="8">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="R69" s="8">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S69" s="9">
         <v>0</v>
       </c>
       <c r="T69" s="8">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="U69" s="8">
         <v>72</v>
@@ -8143,38 +7612,31 @@
       <c r="AQ69" s="4"/>
       <c r="AR69" s="4"/>
       <c r="AS69" s="4"/>
-      <c r="AT69" s="4"/>
-      <c r="AU69" s="4"/>
-      <c r="AV69" s="4"/>
-      <c r="AW69" s="4"/>
-      <c r="AX69" s="4"/>
-      <c r="AY69" s="4"/>
-      <c r="AZ69" s="4"/>
     </row>
-    <row r="70" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I70" s="8">
         <v>75</v>
@@ -8243,70 +7705,63 @@
       <c r="AQ70" s="4"/>
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
-      <c r="AT70" s="4"/>
-      <c r="AU70" s="4"/>
-      <c r="AV70" s="4"/>
-      <c r="AW70" s="4"/>
-      <c r="AX70" s="4"/>
-      <c r="AY70" s="4"/>
-      <c r="AZ70" s="4"/>
     </row>
-    <row r="71" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I71" s="8">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="8">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L71" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M71" s="9">
         <v>0</v>
       </c>
       <c r="N71" s="8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O71" s="8">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="8">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R71" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S71" s="9">
         <v>0</v>
       </c>
       <c r="T71" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U71" s="8">
         <v>74</v>
@@ -8343,70 +7798,63 @@
       <c r="AQ71" s="4"/>
       <c r="AR71" s="4"/>
       <c r="AS71" s="4"/>
-      <c r="AT71" s="4"/>
-      <c r="AU71" s="4"/>
-      <c r="AV71" s="4"/>
-      <c r="AW71" s="4"/>
-      <c r="AX71" s="4"/>
-      <c r="AY71" s="4"/>
-      <c r="AZ71" s="4"/>
     </row>
-    <row r="72" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I72" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L72" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M72" s="9">
         <v>0</v>
       </c>
       <c r="N72" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O72" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R72" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S72" s="9">
         <v>0</v>
       </c>
       <c r="T72" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U72" s="8">
         <v>80</v>
@@ -8443,38 +7891,31 @@
       <c r="AQ72" s="4"/>
       <c r="AR72" s="4"/>
       <c r="AS72" s="4"/>
-      <c r="AT72" s="4"/>
-      <c r="AU72" s="4"/>
-      <c r="AV72" s="4"/>
-      <c r="AW72" s="4"/>
-      <c r="AX72" s="4"/>
-      <c r="AY72" s="4"/>
-      <c r="AZ72" s="4"/>
     </row>
-    <row r="73" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I73" s="8">
         <v>50</v>
@@ -8547,70 +7988,63 @@
       <c r="AQ73" s="4"/>
       <c r="AR73" s="4"/>
       <c r="AS73" s="4"/>
-      <c r="AT73" s="4"/>
-      <c r="AU73" s="4"/>
-      <c r="AV73" s="4"/>
-      <c r="AW73" s="4"/>
-      <c r="AX73" s="4"/>
-      <c r="AY73" s="4"/>
-      <c r="AZ73" s="4"/>
     </row>
-    <row r="74" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I74" s="8">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="8">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L74" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M74" s="9">
         <v>0</v>
       </c>
       <c r="N74" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O74" s="8">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="8">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="R74" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S74" s="9">
         <v>0</v>
       </c>
       <c r="T74" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U74" s="8">
         <v>50</v>
@@ -8647,70 +8081,63 @@
       <c r="AQ74" s="4"/>
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
-      <c r="AT74" s="4"/>
-      <c r="AU74" s="4"/>
-      <c r="AV74" s="4"/>
-      <c r="AW74" s="4"/>
-      <c r="AX74" s="4"/>
-      <c r="AY74" s="4"/>
-      <c r="AZ74" s="4"/>
     </row>
-    <row r="75" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I75" s="8">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="8">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L75" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75" s="9">
         <v>0</v>
       </c>
       <c r="N75" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" s="8">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="8">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R75" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S75" s="9">
         <v>0</v>
       </c>
       <c r="T75" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U75" s="8">
         <v>27</v>
@@ -8747,38 +8174,31 @@
       <c r="AQ75" s="4"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
-      <c r="AT75" s="4"/>
-      <c r="AU75" s="4"/>
-      <c r="AV75" s="4"/>
-      <c r="AW75" s="4"/>
-      <c r="AX75" s="4"/>
-      <c r="AY75" s="4"/>
-      <c r="AZ75" s="4"/>
     </row>
-    <row r="76" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I76" s="8">
         <v>427</v>
@@ -8847,38 +8267,31 @@
       <c r="AQ76" s="4"/>
       <c r="AR76" s="4"/>
       <c r="AS76" s="4"/>
-      <c r="AT76" s="4"/>
-      <c r="AU76" s="4"/>
-      <c r="AV76" s="4"/>
-      <c r="AW76" s="4"/>
-      <c r="AX76" s="4"/>
-      <c r="AY76" s="4"/>
-      <c r="AZ76" s="4"/>
     </row>
-    <row r="77" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I77" s="8">
         <v>245</v>
@@ -8947,38 +8360,31 @@
       <c r="AQ77" s="4"/>
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
-      <c r="AT77" s="4"/>
-      <c r="AU77" s="4"/>
-      <c r="AV77" s="4"/>
-      <c r="AW77" s="4"/>
-      <c r="AX77" s="4"/>
-      <c r="AY77" s="4"/>
-      <c r="AZ77" s="4"/>
     </row>
-    <row r="78" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I78" s="8">
         <v>127</v>
@@ -9047,38 +8453,31 @@
       <c r="AQ78" s="4"/>
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
-      <c r="AT78" s="4"/>
-      <c r="AU78" s="4"/>
-      <c r="AV78" s="4"/>
-      <c r="AW78" s="4"/>
-      <c r="AX78" s="4"/>
-      <c r="AY78" s="4"/>
-      <c r="AZ78" s="4"/>
     </row>
-    <row r="79" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I79" s="8">
         <v>36</v>
@@ -9151,38 +8550,31 @@
       <c r="AQ79" s="4"/>
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
-      <c r="AT79" s="4"/>
-      <c r="AU79" s="4"/>
-      <c r="AV79" s="4"/>
-      <c r="AW79" s="4"/>
-      <c r="AX79" s="4"/>
-      <c r="AY79" s="4"/>
-      <c r="AZ79" s="4"/>
     </row>
-    <row r="80" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I80" s="8">
         <v>5</v>
@@ -9255,38 +8647,31 @@
       <c r="AQ80" s="4"/>
       <c r="AR80" s="4"/>
       <c r="AS80" s="4"/>
-      <c r="AT80" s="4"/>
-      <c r="AU80" s="4"/>
-      <c r="AV80" s="4"/>
-      <c r="AW80" s="4"/>
-      <c r="AX80" s="4"/>
-      <c r="AY80" s="4"/>
-      <c r="AZ80" s="4"/>
     </row>
-    <row r="81" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I81" s="8">
         <v>173</v>
@@ -9355,38 +8740,31 @@
       <c r="AQ81" s="4"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
-      <c r="AT81" s="4"/>
-      <c r="AU81" s="4"/>
-      <c r="AV81" s="4"/>
-      <c r="AW81" s="4"/>
-      <c r="AX81" s="4"/>
-      <c r="AY81" s="4"/>
-      <c r="AZ81" s="4"/>
     </row>
-    <row r="82" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I82" s="8">
         <v>45</v>
@@ -9459,72 +8837,65 @@
       <c r="AQ82" s="4"/>
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
-      <c r="AT82" s="4"/>
-      <c r="AU82" s="4"/>
-      <c r="AV82" s="4"/>
-      <c r="AW82" s="4"/>
-      <c r="AX82" s="4"/>
-      <c r="AY82" s="4"/>
-      <c r="AZ82" s="4"/>
     </row>
-    <row r="83" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I83" s="11">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="J83" s="11">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="K83" s="8">
         <v>0</v>
       </c>
       <c r="L83" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M83" s="9">
         <v>0</v>
       </c>
       <c r="N83" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O83" s="11">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="P83" s="11">
-        <v>11665</v>
+        <v>12180</v>
       </c>
       <c r="Q83" s="8">
         <v>0</v>
       </c>
       <c r="R83" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S83" s="9">
         <v>0</v>
       </c>
       <c r="T83" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U83" s="6">
         <v>0</v>
@@ -9534,13 +8905,13 @@
         <v>0</v>
       </c>
       <c r="X83" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y83" s="9">
         <v>0</v>
       </c>
       <c r="Z83" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
@@ -9561,36 +8932,29 @@
       <c r="AQ83" s="4"/>
       <c r="AR83" s="4"/>
       <c r="AS83" s="4"/>
-      <c r="AT83" s="4"/>
-      <c r="AU83" s="4"/>
-      <c r="AV83" s="4"/>
-      <c r="AW83" s="4"/>
-      <c r="AX83" s="4"/>
-      <c r="AY83" s="4"/>
-      <c r="AZ83" s="4"/>
     </row>
-    <row r="84" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I84" s="6">
         <v>0</v>
@@ -9659,36 +9023,29 @@
       <c r="AQ84" s="4"/>
       <c r="AR84" s="4"/>
       <c r="AS84" s="4"/>
-      <c r="AT84" s="4"/>
-      <c r="AU84" s="4"/>
-      <c r="AV84" s="4"/>
-      <c r="AW84" s="4"/>
-      <c r="AX84" s="4"/>
-      <c r="AY84" s="4"/>
-      <c r="AZ84" s="4"/>
     </row>
-    <row r="85" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I85" s="11">
         <v>1125</v>
@@ -9761,36 +9118,29 @@
       <c r="AQ85" s="4"/>
       <c r="AR85" s="4"/>
       <c r="AS85" s="4"/>
-      <c r="AT85" s="4"/>
-      <c r="AU85" s="4"/>
-      <c r="AV85" s="4"/>
-      <c r="AW85" s="4"/>
-      <c r="AX85" s="4"/>
-      <c r="AY85" s="4"/>
-      <c r="AZ85" s="4"/>
     </row>
-    <row r="86" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I86" s="11">
         <v>4964</v>
@@ -9802,13 +9152,13 @@
         <v>0</v>
       </c>
       <c r="L86" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M86" s="9">
         <v>0</v>
       </c>
       <c r="N86" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O86" s="11">
         <v>4964</v>
@@ -9820,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="R86" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S86" s="9">
         <v>0</v>
       </c>
       <c r="T86" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U86" s="6">
         <v>0</v>
@@ -9836,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="X86" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y86" s="9">
         <v>0</v>
       </c>
       <c r="Z86" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA86" s="10"/>
       <c r="AB86" s="10"/>
@@ -9863,68 +9213,65 @@
       <c r="AQ86" s="4"/>
       <c r="AR86" s="4"/>
       <c r="AS86" s="4"/>
-      <c r="AT86" s="4"/>
-      <c r="AU86" s="4"/>
-      <c r="AV86" s="4"/>
-      <c r="AW86" s="4"/>
-      <c r="AX86" s="4"/>
-      <c r="AY86" s="4"/>
-      <c r="AZ86" s="4"/>
     </row>
-    <row r="87" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="J87" s="8">
+        <v>100</v>
+      </c>
       <c r="K87" s="8">
         <v>0</v>
       </c>
       <c r="L87" s="6">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M87" s="9">
         <v>0</v>
       </c>
       <c r="N87" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O87" s="6">
-        <v>0</v>
-      </c>
-      <c r="P87" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="P87" s="8">
+        <v>100</v>
+      </c>
       <c r="Q87" s="8">
         <v>0</v>
       </c>
       <c r="R87" s="6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S87" s="9">
         <v>0</v>
       </c>
       <c r="T87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U87" s="6">
         <v>0</v>
@@ -9934,38 +9281,28 @@
         <v>0</v>
       </c>
       <c r="X87" s="6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y87" s="9">
         <v>0</v>
       </c>
       <c r="Z87" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AA87" s="8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AB87" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD87" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE87" s="15">
-        <v>2</v>
-      </c>
-      <c r="AF87" s="15">
-        <v>3</v>
-      </c>
-      <c r="AG87" s="15">
-        <v>4</v>
-      </c>
-      <c r="AH87" s="15">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AD87" s="4"/>
+      <c r="AE87" s="4"/>
+      <c r="AF87" s="4"/>
+      <c r="AG87" s="4"/>
+      <c r="AH87" s="4"/>
       <c r="AI87" s="4"/>
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4"/>
@@ -9977,36 +9314,29 @@
       <c r="AQ87" s="4"/>
       <c r="AR87" s="4"/>
       <c r="AS87" s="4"/>
-      <c r="AT87" s="4"/>
-      <c r="AU87" s="4"/>
-      <c r="AV87" s="4"/>
-      <c r="AW87" s="4"/>
-      <c r="AX87" s="4"/>
-      <c r="AY87" s="4"/>
-      <c r="AZ87" s="4"/>
     </row>
-    <row r="88" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I88" s="11">
         <v>4881</v>
@@ -10018,13 +9348,13 @@
         <v>0</v>
       </c>
       <c r="L88" s="8">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="M88" s="9">
         <v>0</v>
       </c>
       <c r="N88" s="8">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="O88" s="11">
         <v>4881</v>
@@ -10036,13 +9366,13 @@
         <v>0</v>
       </c>
       <c r="R88" s="8">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="S88" s="9">
         <v>0</v>
       </c>
       <c r="T88" s="8">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="U88" s="6">
         <v>0</v>
@@ -10052,13 +9382,13 @@
         <v>0</v>
       </c>
       <c r="X88" s="6">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Y88" s="9">
         <v>0</v>
       </c>
       <c r="Z88" s="8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -10079,36 +9409,29 @@
       <c r="AQ88" s="4"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
-      <c r="AT88" s="4"/>
-      <c r="AU88" s="4"/>
-      <c r="AV88" s="4"/>
-      <c r="AW88" s="4"/>
-      <c r="AX88" s="4"/>
-      <c r="AY88" s="4"/>
-      <c r="AZ88" s="4"/>
     </row>
-    <row r="89" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I89" s="11">
         <v>1510</v>
@@ -10181,36 +9504,29 @@
       <c r="AQ89" s="4"/>
       <c r="AR89" s="4"/>
       <c r="AS89" s="4"/>
-      <c r="AT89" s="4"/>
-      <c r="AU89" s="4"/>
-      <c r="AV89" s="4"/>
-      <c r="AW89" s="4"/>
-      <c r="AX89" s="4"/>
-      <c r="AY89" s="4"/>
-      <c r="AZ89" s="4"/>
     </row>
-    <row r="90" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I90" s="11">
         <v>5703</v>
@@ -10222,13 +9538,13 @@
         <v>0</v>
       </c>
       <c r="L90" s="11">
-        <v>1078</v>
+        <v>1345</v>
       </c>
       <c r="M90" s="9">
         <v>0</v>
       </c>
       <c r="N90" s="11">
-        <v>1078</v>
+        <v>1345</v>
       </c>
       <c r="O90" s="11">
         <v>5703</v>
@@ -10239,14 +9555,14 @@
       <c r="Q90" s="8">
         <v>0</v>
       </c>
-      <c r="R90" s="8">
-        <v>877</v>
+      <c r="R90" s="11">
+        <v>1076</v>
       </c>
       <c r="S90" s="9">
         <v>0</v>
       </c>
-      <c r="T90" s="8">
-        <v>877</v>
+      <c r="T90" s="11">
+        <v>1076</v>
       </c>
       <c r="U90" s="6">
         <v>0</v>
@@ -10256,13 +9572,13 @@
         <v>0</v>
       </c>
       <c r="X90" s="6">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="Y90" s="9">
         <v>0</v>
       </c>
       <c r="Z90" s="8">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -10283,36 +9599,29 @@
       <c r="AQ90" s="4"/>
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
-      <c r="AT90" s="4"/>
-      <c r="AU90" s="4"/>
-      <c r="AV90" s="4"/>
-      <c r="AW90" s="4"/>
-      <c r="AX90" s="4"/>
-      <c r="AY90" s="4"/>
-      <c r="AZ90" s="4"/>
     </row>
-    <row r="91" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I91" s="8">
         <v>337</v>
@@ -10385,36 +9694,29 @@
       <c r="AQ91" s="4"/>
       <c r="AR91" s="4"/>
       <c r="AS91" s="4"/>
-      <c r="AT91" s="4"/>
-      <c r="AU91" s="4"/>
-      <c r="AV91" s="4"/>
-      <c r="AW91" s="4"/>
-      <c r="AX91" s="4"/>
-      <c r="AY91" s="4"/>
-      <c r="AZ91" s="4"/>
     </row>
-    <row r="92" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I92" s="8">
         <v>200</v>
@@ -10487,36 +9789,29 @@
       <c r="AQ92" s="4"/>
       <c r="AR92" s="4"/>
       <c r="AS92" s="4"/>
-      <c r="AT92" s="4"/>
-      <c r="AU92" s="4"/>
-      <c r="AV92" s="4"/>
-      <c r="AW92" s="4"/>
-      <c r="AX92" s="4"/>
-      <c r="AY92" s="4"/>
-      <c r="AZ92" s="4"/>
     </row>
-    <row r="93" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I93" s="8">
         <v>244</v>
@@ -10589,36 +9884,29 @@
       <c r="AQ93" s="4"/>
       <c r="AR93" s="4"/>
       <c r="AS93" s="4"/>
-      <c r="AT93" s="4"/>
-      <c r="AU93" s="4"/>
-      <c r="AV93" s="4"/>
-      <c r="AW93" s="4"/>
-      <c r="AX93" s="4"/>
-      <c r="AY93" s="4"/>
-      <c r="AZ93" s="4"/>
     </row>
-    <row r="94" spans="1:52" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:45" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I94" s="11">
         <v>1198</v>
@@ -10691,54 +9979,47 @@
       <c r="AQ94" s="4"/>
       <c r="AR94" s="4"/>
       <c r="AS94" s="4"/>
-      <c r="AT94" s="4"/>
-      <c r="AU94" s="4"/>
-      <c r="AV94" s="4"/>
-      <c r="AW94" s="4"/>
-      <c r="AX94" s="4"/>
-      <c r="AY94" s="4"/>
-      <c r="AZ94" s="4"/>
     </row>
-    <row r="95" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I95" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J95" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K95" s="8">
         <v>0</v>
       </c>
       <c r="L95" s="6">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M95" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N95" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O95" s="6">
         <v>0</v>
@@ -10748,31 +10029,31 @@
         <v>0</v>
       </c>
       <c r="R95" s="6">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S95" s="9">
         <v>0</v>
       </c>
       <c r="T95" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U95" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="V95" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W95" s="8">
         <v>0</v>
       </c>
       <c r="X95" s="6">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="Y95" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="Z95" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA95" s="10"/>
       <c r="AB95" s="10"/>
@@ -10793,60 +10074,53 @@
       <c r="AQ95" s="4"/>
       <c r="AR95" s="4"/>
       <c r="AS95" s="4"/>
-      <c r="AT95" s="4"/>
-      <c r="AU95" s="4"/>
-      <c r="AV95" s="4"/>
-      <c r="AW95" s="4"/>
-      <c r="AX95" s="4"/>
-      <c r="AY95" s="4"/>
-      <c r="AZ95" s="4"/>
     </row>
-    <row r="96" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I96" s="11">
-        <v>11284</v>
+        <v>11158</v>
       </c>
       <c r="J96" s="11">
-        <v>11260</v>
+        <v>11138</v>
       </c>
       <c r="K96" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L96" s="8">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="M96" s="8">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="N96" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O96" s="11">
-        <v>11238</v>
+        <v>10948</v>
       </c>
       <c r="P96" s="11">
-        <v>11238</v>
+        <v>10948</v>
       </c>
       <c r="Q96" s="8">
         <v>0</v>
@@ -10861,22 +10135,22 @@
         <v>100</v>
       </c>
       <c r="U96" s="8">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="V96" s="8">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="W96" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="X96" s="8">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="Y96" s="8">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="Z96" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
@@ -10897,36 +10171,29 @@
       <c r="AQ96" s="4"/>
       <c r="AR96" s="4"/>
       <c r="AS96" s="4"/>
-      <c r="AT96" s="4"/>
-      <c r="AU96" s="4"/>
-      <c r="AV96" s="4"/>
-      <c r="AW96" s="4"/>
-      <c r="AX96" s="4"/>
-      <c r="AY96" s="4"/>
-      <c r="AZ96" s="4"/>
     </row>
-    <row r="97" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I97" s="6">
         <v>0</v>
@@ -10995,36 +10262,29 @@
       <c r="AQ97" s="4"/>
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
-      <c r="AT97" s="4"/>
-      <c r="AU97" s="4"/>
-      <c r="AV97" s="4"/>
-      <c r="AW97" s="4"/>
-      <c r="AX97" s="4"/>
-      <c r="AY97" s="4"/>
-      <c r="AZ97" s="4"/>
     </row>
-    <row r="98" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I98" s="11">
         <v>1090</v>
@@ -11036,13 +10296,13 @@
         <v>50</v>
       </c>
       <c r="L98" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M98" s="9">
         <v>0</v>
       </c>
       <c r="N98" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O98" s="11">
         <v>1000</v>
@@ -11054,13 +10314,13 @@
         <v>0</v>
       </c>
       <c r="R98" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S98" s="9">
         <v>0</v>
       </c>
       <c r="T98" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U98" s="8">
         <v>90</v>
@@ -11072,13 +10332,13 @@
         <v>50</v>
       </c>
       <c r="X98" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y98" s="9">
         <v>0</v>
       </c>
       <c r="Z98" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
@@ -11099,36 +10359,29 @@
       <c r="AQ98" s="4"/>
       <c r="AR98" s="4"/>
       <c r="AS98" s="4"/>
-      <c r="AT98" s="4"/>
-      <c r="AU98" s="4"/>
-      <c r="AV98" s="4"/>
-      <c r="AW98" s="4"/>
-      <c r="AX98" s="4"/>
-      <c r="AY98" s="4"/>
-      <c r="AZ98" s="4"/>
     </row>
-    <row r="99" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I99" s="11">
         <v>1932</v>
@@ -11140,13 +10393,13 @@
         <v>50</v>
       </c>
       <c r="L99" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M99" s="9">
         <v>0</v>
       </c>
       <c r="N99" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O99" s="11">
         <v>1832</v>
@@ -11158,13 +10411,13 @@
         <v>0</v>
       </c>
       <c r="R99" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S99" s="9">
         <v>0</v>
       </c>
       <c r="T99" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U99" s="8">
         <v>100</v>
@@ -11176,13 +10429,13 @@
         <v>50</v>
       </c>
       <c r="X99" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y99" s="9">
         <v>0</v>
       </c>
       <c r="Z99" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
@@ -11203,36 +10456,29 @@
       <c r="AQ99" s="4"/>
       <c r="AR99" s="4"/>
       <c r="AS99" s="4"/>
-      <c r="AT99" s="4"/>
-      <c r="AU99" s="4"/>
-      <c r="AV99" s="4"/>
-      <c r="AW99" s="4"/>
-      <c r="AX99" s="4"/>
-      <c r="AY99" s="4"/>
-      <c r="AZ99" s="4"/>
     </row>
-    <row r="100" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I100" s="11">
         <v>5368</v>
@@ -11244,13 +10490,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="8">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="M100" s="9">
         <v>0</v>
       </c>
       <c r="N100" s="8">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="O100" s="11">
         <v>5368</v>
@@ -11262,13 +10508,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="8">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="S100" s="9">
         <v>0</v>
       </c>
       <c r="T100" s="8">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="U100" s="6">
         <v>0</v>
@@ -11278,13 +10524,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="6">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Y100" s="9">
         <v>0</v>
       </c>
       <c r="Z100" s="8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
@@ -11305,36 +10551,29 @@
       <c r="AQ100" s="4"/>
       <c r="AR100" s="4"/>
       <c r="AS100" s="4"/>
-      <c r="AT100" s="4"/>
-      <c r="AU100" s="4"/>
-      <c r="AV100" s="4"/>
-      <c r="AW100" s="4"/>
-      <c r="AX100" s="4"/>
-      <c r="AY100" s="4"/>
-      <c r="AZ100" s="4"/>
     </row>
-    <row r="101" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I101" s="11">
         <v>6911</v>
@@ -11346,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="L101" s="11">
-        <v>1078</v>
+        <v>1345</v>
       </c>
       <c r="M101" s="9">
         <v>0</v>
       </c>
       <c r="N101" s="11">
-        <v>1078</v>
+        <v>1345</v>
       </c>
       <c r="O101" s="11">
         <v>6911</v>
@@ -11363,14 +10602,14 @@
       <c r="Q101" s="8">
         <v>0</v>
       </c>
-      <c r="R101" s="8">
-        <v>877</v>
+      <c r="R101" s="11">
+        <v>1076</v>
       </c>
       <c r="S101" s="9">
         <v>0</v>
       </c>
-      <c r="T101" s="8">
-        <v>877</v>
+      <c r="T101" s="11">
+        <v>1076</v>
       </c>
       <c r="U101" s="6">
         <v>0</v>
@@ -11380,13 +10619,13 @@
         <v>0</v>
       </c>
       <c r="X101" s="6">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="Y101" s="9">
         <v>0</v>
       </c>
       <c r="Z101" s="8">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
@@ -11407,34 +10646,27 @@
       <c r="AQ101" s="4"/>
       <c r="AR101" s="4"/>
       <c r="AS101" s="4"/>
-      <c r="AT101" s="4"/>
-      <c r="AU101" s="4"/>
-      <c r="AV101" s="4"/>
-      <c r="AW101" s="4"/>
-      <c r="AX101" s="4"/>
-      <c r="AY101" s="4"/>
-      <c r="AZ101" s="4"/>
     </row>
-    <row r="102" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I102" s="8">
         <v>36</v>
@@ -11507,36 +10739,29 @@
       <c r="AQ102" s="4"/>
       <c r="AR102" s="4"/>
       <c r="AS102" s="4"/>
-      <c r="AT102" s="4"/>
-      <c r="AU102" s="4"/>
-      <c r="AV102" s="4"/>
-      <c r="AW102" s="4"/>
-      <c r="AX102" s="4"/>
-      <c r="AY102" s="4"/>
-      <c r="AZ102" s="4"/>
     </row>
-    <row r="103" spans="1:52" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:45" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I103" s="11">
         <v>4761</v>
@@ -11548,13 +10773,13 @@
         <v>0</v>
       </c>
       <c r="L103" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M103" s="9">
         <v>0</v>
       </c>
       <c r="N103" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O103" s="11">
         <v>4761</v>
@@ -11566,13 +10791,13 @@
         <v>0</v>
       </c>
       <c r="R103" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S103" s="9">
         <v>0</v>
       </c>
       <c r="T103" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U103" s="6">
         <v>0</v>
@@ -11609,34 +10834,27 @@
       <c r="AQ103" s="4"/>
       <c r="AR103" s="4"/>
       <c r="AS103" s="4"/>
-      <c r="AT103" s="4"/>
-      <c r="AU103" s="4"/>
-      <c r="AV103" s="4"/>
-      <c r="AW103" s="4"/>
-      <c r="AX103" s="4"/>
-      <c r="AY103" s="4"/>
-      <c r="AZ103" s="4"/>
     </row>
-    <row r="104" spans="1:52" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:45" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I104" s="11">
         <v>2126</v>
@@ -11709,36 +10927,29 @@
       <c r="AQ104" s="4"/>
       <c r="AR104" s="4"/>
       <c r="AS104" s="4"/>
-      <c r="AT104" s="4"/>
-      <c r="AU104" s="4"/>
-      <c r="AV104" s="4"/>
-      <c r="AW104" s="4"/>
-      <c r="AX104" s="4"/>
-      <c r="AY104" s="4"/>
-      <c r="AZ104" s="4"/>
     </row>
-    <row r="105" spans="1:52" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:45" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I105" s="11">
         <v>1239</v>
@@ -11811,36 +11022,29 @@
       <c r="AQ105" s="4"/>
       <c r="AR105" s="4"/>
       <c r="AS105" s="4"/>
-      <c r="AT105" s="4"/>
-      <c r="AU105" s="4"/>
-      <c r="AV105" s="4"/>
-      <c r="AW105" s="4"/>
-      <c r="AX105" s="4"/>
-      <c r="AY105" s="4"/>
-      <c r="AZ105" s="4"/>
     </row>
-    <row r="106" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I106" s="11">
         <v>1000</v>
@@ -11852,13 +11056,13 @@
         <v>0</v>
       </c>
       <c r="L106" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M106" s="9">
         <v>0</v>
       </c>
       <c r="N106" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O106" s="11">
         <v>1000</v>
@@ -11870,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="R106" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S106" s="9">
         <v>0</v>
       </c>
       <c r="T106" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U106" s="6">
         <v>0</v>
@@ -11886,13 +11090,13 @@
         <v>0</v>
       </c>
       <c r="X106" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y106" s="9">
         <v>0</v>
       </c>
       <c r="Z106" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
@@ -11913,36 +11117,29 @@
       <c r="AQ106" s="4"/>
       <c r="AR106" s="4"/>
       <c r="AS106" s="4"/>
-      <c r="AT106" s="4"/>
-      <c r="AU106" s="4"/>
-      <c r="AV106" s="4"/>
-      <c r="AW106" s="4"/>
-      <c r="AX106" s="4"/>
-      <c r="AY106" s="4"/>
-      <c r="AZ106" s="4"/>
     </row>
-    <row r="107" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I107" s="11">
         <v>2599</v>
@@ -11954,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="L107" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M107" s="9">
         <v>0</v>
       </c>
       <c r="N107" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O107" s="11">
         <v>2599</v>
@@ -11972,13 +11169,13 @@
         <v>0</v>
       </c>
       <c r="R107" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S107" s="9">
         <v>0</v>
       </c>
       <c r="T107" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U107" s="6">
         <v>0</v>
@@ -11988,13 +11185,13 @@
         <v>0</v>
       </c>
       <c r="X107" s="6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y107" s="9">
         <v>0</v>
       </c>
       <c r="Z107" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
@@ -12015,36 +11212,29 @@
       <c r="AQ107" s="4"/>
       <c r="AR107" s="4"/>
       <c r="AS107" s="4"/>
-      <c r="AT107" s="4"/>
-      <c r="AU107" s="4"/>
-      <c r="AV107" s="4"/>
-      <c r="AW107" s="4"/>
-      <c r="AX107" s="4"/>
-      <c r="AY107" s="4"/>
-      <c r="AZ107" s="4"/>
     </row>
-    <row r="108" spans="1:52" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:45" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I108" s="11">
         <v>4912</v>
@@ -12056,13 +11246,13 @@
         <v>0</v>
       </c>
       <c r="L108" s="8">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="M108" s="9">
         <v>0</v>
       </c>
       <c r="N108" s="8">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="O108" s="11">
         <v>4912</v>
@@ -12074,13 +11264,13 @@
         <v>0</v>
       </c>
       <c r="R108" s="8">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="S108" s="9">
         <v>0</v>
       </c>
       <c r="T108" s="8">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="U108" s="6">
         <v>0</v>
@@ -12090,13 +11280,13 @@
         <v>0</v>
       </c>
       <c r="X108" s="6">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Y108" s="9">
         <v>0</v>
       </c>
       <c r="Z108" s="8">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
@@ -12117,72 +11307,65 @@
       <c r="AQ108" s="4"/>
       <c r="AR108" s="4"/>
       <c r="AS108" s="4"/>
-      <c r="AT108" s="4"/>
-      <c r="AU108" s="4"/>
-      <c r="AV108" s="4"/>
-      <c r="AW108" s="4"/>
-      <c r="AX108" s="4"/>
-      <c r="AY108" s="4"/>
-      <c r="AZ108" s="4"/>
     </row>
-    <row r="109" spans="1:52" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:45" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I109" s="11">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="J109" s="11">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="K109" s="8">
         <v>0</v>
       </c>
       <c r="L109" s="11">
-        <v>1202</v>
+        <v>1474</v>
       </c>
       <c r="M109" s="9">
         <v>0</v>
       </c>
       <c r="N109" s="11">
-        <v>1202</v>
+        <v>1474</v>
       </c>
       <c r="O109" s="11">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="P109" s="11">
-        <v>2900</v>
+        <v>4506</v>
       </c>
       <c r="Q109" s="8">
         <v>0</v>
       </c>
-      <c r="R109" s="8">
-        <v>984</v>
+      <c r="R109" s="11">
+        <v>1185</v>
       </c>
       <c r="S109" s="9">
         <v>0</v>
       </c>
-      <c r="T109" s="8">
-        <v>984</v>
+      <c r="T109" s="11">
+        <v>1185</v>
       </c>
       <c r="U109" s="6">
         <v>0</v>
@@ -12192,104 +11375,76 @@
         <v>0</v>
       </c>
       <c r="X109" s="6">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="Y109" s="9">
         <v>0</v>
       </c>
       <c r="Z109" s="8">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="AA109" s="8">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AB109" s="13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AC109" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD109" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="15">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="AD109" s="14">
+        <v>8</v>
+      </c>
+      <c r="AE109" s="14">
+        <v>9</v>
       </c>
       <c r="AF109" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AG109" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AH109" s="15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI109" s="15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ109" s="15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AK109" s="15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AL109" s="15">
-        <v>9</v>
-      </c>
-      <c r="AM109" s="16">
-        <v>10</v>
-      </c>
-      <c r="AN109" s="16">
-        <v>11</v>
-      </c>
-      <c r="AO109" s="16">
-        <v>12</v>
-      </c>
-      <c r="AP109" s="16">
-        <v>13</v>
-      </c>
-      <c r="AQ109" s="16">
-        <v>14</v>
-      </c>
-      <c r="AR109" s="16">
-        <v>15</v>
-      </c>
-      <c r="AS109" s="16">
         <v>16</v>
       </c>
-      <c r="AT109" s="16">
+      <c r="AM109" s="15">
         <v>17</v>
       </c>
-      <c r="AU109" s="16">
+      <c r="AN109" s="15">
         <v>18</v>
       </c>
-      <c r="AV109" s="16">
+      <c r="AO109" s="15">
         <v>19</v>
       </c>
-      <c r="AW109" s="16">
+      <c r="AP109" s="15">
         <v>20</v>
       </c>
-      <c r="AX109" s="16">
+      <c r="AQ109" s="15">
         <v>21</v>
       </c>
-      <c r="AY109" s="16">
+      <c r="AR109" s="15">
         <v>22</v>
       </c>
-      <c r="AZ109" s="16">
+      <c r="AS109" s="15">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
+  <mergeCells count="37">
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
